--- a/Table/R_cluster.xlsx
+++ b/Table/R_cluster.xlsx
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -729,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -753,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -769,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -777,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -785,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -809,7 +809,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -817,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -825,7 +825,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -841,7 +841,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -873,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -881,7 +881,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -889,7 +889,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -913,7 +913,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -921,7 +921,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -929,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -937,7 +937,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -945,7 +945,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -953,7 +953,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -961,7 +961,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -969,7 +969,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -977,7 +977,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Table/R_cluster.xlsx
+++ b/Table/R_cluster.xlsx
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -729,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -769,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -777,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -785,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -793,7 +793,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -841,7 +841,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -873,7 +873,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -889,7 +889,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -913,7 +913,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -921,7 +921,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -929,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -937,7 +937,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -945,7 +945,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -953,7 +953,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -961,7 +961,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -969,7 +969,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -977,7 +977,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -985,7 +985,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
